--- a/branches/draft/StructureDefinition-pregnancy-status.xlsx
+++ b/branches/draft/StructureDefinition-pregnancy-status.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$78</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$69</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2924" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2584" uniqueCount="464">
   <si>
     <t>Path</t>
   </si>
@@ -656,8 +656,8 @@
 </t>
   </si>
   <si>
-    <t>dateTime
-PeriodTiminginstant</t>
+    <t xml:space="preserve">dateTime
+</t>
   </si>
   <si>
     <t>Clinically relevant time/time-period for observation</t>
@@ -672,6 +672,13 @@
     <t>Knowing when an observation was deemed true is important to its relevance as well as determining trends.</t>
   </si>
   <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
     <t>Event.occurrence[x]</t>
   </si>
   <si>
@@ -682,6 +689,9 @@
   </si>
   <si>
     <t>FiveWs.done[x]</t>
+  </si>
+  <si>
+    <t>effectiveDateTime</t>
   </si>
   <si>
     <t>Observation.issued</t>
@@ -1233,7 +1243,7 @@
 </t>
   </si>
   <si>
-    <t>Slice based on the type of component</t>
+    <t>Slice based on the component.code pattern</t>
   </si>
   <si>
     <t>open</t>
@@ -1313,26 +1323,156 @@
     <t>Guidance on how to interpret the value by comparison to a normal or recommended range.</t>
   </si>
   <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>http://openhie.org/fhir/openhie.vn.case-reporting.hiv/ValueSet/VSDateComponent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dateTime
+    <t>gest_age</t>
+  </si>
+  <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;code value="76516-4"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantity
 </t>
   </si>
   <si>
-    <t>arvTreatmentStatusForChild</t>
-  </si>
-  <si>
-    <t>http://openhie.org/fhir/openhie.vn.case-reporting.hiv/ValueSet/vs-arv-treatment-status</t>
-  </si>
-  <si>
-    <t>hivTestResultForChild</t>
-  </si>
-  <si>
-    <t>http://openhie.org/fhir/openhie.vn.case-reporting.hiv/ValueSet/vs-hiv-rapidtestresults</t>
+    <t>valueQuantity</t>
+  </si>
+  <si>
+    <t>Observation.component.value[x].id</t>
+  </si>
+  <si>
+    <t>Observation.component.value[x].extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Observation.component.value[x].value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">decimal
+</t>
+  </si>
+  <si>
+    <t>Numerical value (with implicit precision)</t>
+  </si>
+  <si>
+    <t>The value of the measured amount. The value includes an implicit precision in the presentation of the value.</t>
+  </si>
+  <si>
+    <t>The implicit precision in the value should always be honored. Monetary values have their own rules for handling precision (refer to standard accounting text books).</t>
+  </si>
+  <si>
+    <t>Precision is handled implicitly in almost all cases of measurement.</t>
+  </si>
+  <si>
+    <t>Quantity.value</t>
+  </si>
+  <si>
+    <t>SN.2  / CQ - N/A</t>
+  </si>
+  <si>
+    <t>PQ.value, CO.value, MO.value, IVL.high or IVL.low depending on the value</t>
+  </si>
+  <si>
+    <t>Observation.component.value[x].comparator</t>
+  </si>
+  <si>
+    <t>&lt; | &lt;= | &gt;= | &gt; - how to understand the value</t>
+  </si>
+  <si>
+    <t>How the value should be understood and represented - whether the actual value is greater or less than the stated value due to measurement issues; e.g. if the comparator is "&lt;" , then the real value is &lt; stated value.</t>
+  </si>
+  <si>
+    <t>Need a framework for handling measures where the value is &lt;5ug/L or &gt;400mg/L due to the limitations of measuring methodology.</t>
+  </si>
+  <si>
+    <t>If there is no comparator, then there is no modification of the value</t>
+  </si>
+  <si>
+    <t>How the Quantity should be understood and represented.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/quantity-comparator|4.0.1</t>
+  </si>
+  <si>
+    <t>Quantity.comparator</t>
+  </si>
+  <si>
+    <t>SN.1  / CQ.1</t>
+  </si>
+  <si>
+    <t>IVL properties</t>
+  </si>
+  <si>
+    <t>Observation.component.value[x].unit</t>
+  </si>
+  <si>
+    <t>Unit representation</t>
+  </si>
+  <si>
+    <t>A human-readable form of the unit.</t>
+  </si>
+  <si>
+    <t>There are many representations for units of measure and in many contexts, particular representations are fixed and required. I.e. mcg for micrograms.</t>
+  </si>
+  <si>
+    <t>Quantity.unit</t>
+  </si>
+  <si>
+    <t>(see OBX.6 etc.) / CQ.2</t>
+  </si>
+  <si>
+    <t>PQ.unit</t>
+  </si>
+  <si>
+    <t>Observation.component.value[x].system</t>
+  </si>
+  <si>
+    <t>System that defines coded unit form</t>
+  </si>
+  <si>
+    <t>The identification of the system that provides the coded form of the unit.</t>
+  </si>
+  <si>
+    <t>Need to know the system that defines the coded form of the unit.</t>
+  </si>
+  <si>
+    <t>Quantity.system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qty-3
+</t>
+  </si>
+  <si>
+    <t>CO.codeSystem, PQ.translation.codeSystem</t>
+  </si>
+  <si>
+    <t>Observation.component.value[x].code</t>
+  </si>
+  <si>
+    <t>Coded form of the unit</t>
+  </si>
+  <si>
+    <t>A computer processable form of the unit in some unit representation system.</t>
+  </si>
+  <si>
+    <t>The preferred system is UCUM, but SNOMED CT can also be used (for customary units) or ISO 4217 for currency.  The context of use may additionally require a code from a particular system.</t>
+  </si>
+  <si>
+    <t>Need a computable form of the unit that is fixed across all forms. UCUM provides this for quantities, but SNOMED CT provides many units of interest.</t>
+  </si>
+  <si>
+    <t>Quantity.code</t>
+  </si>
+  <si>
+    <t>PQ.code, MO.currency, PQ.translation.code</t>
   </si>
 </sst>
 </file>
@@ -1481,7 +1621,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO78"/>
+  <dimension ref="A1:AO69"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1491,7 +1631,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="44.67578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="27.0390625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="17.96484375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1517,7 +1657,7 @@
     <col min="25" max="25" width="83.4375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="35.91796875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
@@ -3300,7 +3440,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
         <v>162</v>
       </c>
@@ -3316,7 +3456,7 @@
         <v>55</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>45</v>
@@ -3846,16 +3986,14 @@
         <v>45</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="AB20" s="2"/>
       <c r="AC20" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>45</v>
+        <v>210</v>
       </c>
       <c r="AE20" t="s" s="2">
         <v>202</v>
@@ -3873,31 +4011,33 @@
         <v>67</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="B21" s="2"/>
+        <v>202</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>215</v>
+      </c>
       <c r="C21" t="s" s="2">
-        <v>45</v>
+        <v>203</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -3907,7 +4047,7 @@
         <v>55</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>45</v>
@@ -3916,18 +4056,20 @@
         <v>56</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>207</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="O21" t="s" s="2">
         <v>45</v>
       </c>
@@ -3975,7 +4117,7 @@
         <v>45</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>43</v>
@@ -3990,27 +4132,27 @@
         <v>67</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>45</v>
+        <v>211</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4021,10 +4163,10 @@
         <v>43</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>45</v>
@@ -4033,18 +4175,18 @@
         <v>56</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="M22" s="2"/>
-      <c r="N22" t="s" s="2">
-        <v>225</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>45</v>
       </c>
@@ -4092,13 +4234,13 @@
         <v>45</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>45</v>
@@ -4107,19 +4249,19 @@
         <v>67</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>226</v>
+        <v>45</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>45</v>
@@ -4127,7 +4269,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4138,7 +4280,7 @@
         <v>43</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>45</v>
@@ -4150,19 +4292,17 @@
         <v>56</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>234</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="M23" s="2"/>
       <c r="N23" t="s" s="2">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>45</v>
@@ -4211,42 +4351,42 @@
         <v>45</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>236</v>
+        <v>45</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>67</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>45</v>
+        <v>229</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>237</v>
+        <v>45</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>45</v>
+        <v>232</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>240</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4266,22 +4406,22 @@
         <v>45</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>153</v>
+        <v>234</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>45</v>
@@ -4306,13 +4446,13 @@
         <v>45</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>246</v>
+        <v>45</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>247</v>
+        <v>45</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>248</v>
+        <v>45</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>45</v>
@@ -4330,7 +4470,7 @@
         <v>45</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>43</v>
@@ -4339,7 +4479,7 @@
         <v>55</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>67</v>
@@ -4348,35 +4488,35 @@
         <v>45</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>45</v>
+        <v>240</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>98</v>
+        <v>241</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>45</v>
+        <v>243</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>252</v>
+        <v>45</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>45</v>
@@ -4391,16 +4531,16 @@
         <v>153</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>45</v>
@@ -4425,13 +4565,13 @@
         <v>45</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>45</v>
@@ -4449,16 +4589,16 @@
         <v>45</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>45</v>
+        <v>252</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>67</v>
@@ -4467,28 +4607,28 @@
         <v>45</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>259</v>
+        <v>45</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>260</v>
+        <v>98</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>262</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>45</v>
+        <v>255</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -4507,19 +4647,19 @@
         <v>45</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>264</v>
+        <v>153</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>45</v>
@@ -4544,13 +4684,13 @@
         <v>45</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>45</v>
+        <v>249</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>45</v>
+        <v>260</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>45</v>
+        <v>261</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>45</v>
@@ -4568,7 +4708,7 @@
         <v>45</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>43</v>
@@ -4586,24 +4726,24 @@
         <v>45</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>45</v>
+        <v>262</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>45</v>
+        <v>265</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4614,7 +4754,7 @@
         <v>43</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>45</v>
@@ -4626,18 +4766,20 @@
         <v>45</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>153</v>
+        <v>267</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>270</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>271</v>
+      </c>
       <c r="O27" t="s" s="2">
         <v>45</v>
       </c>
@@ -4661,13 +4803,13 @@
         <v>45</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>275</v>
+        <v>45</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>276</v>
+        <v>45</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>277</v>
+        <v>45</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>45</v>
@@ -4685,13 +4827,13 @@
         <v>45</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>45</v>
@@ -4703,24 +4845,24 @@
         <v>45</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>278</v>
+        <v>45</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>281</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4746,17 +4888,15 @@
         <v>153</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>286</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>45</v>
       </c>
@@ -4780,13 +4920,13 @@
         <v>45</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>45</v>
@@ -4804,7 +4944,7 @@
         <v>45</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>43</v>
@@ -4822,24 +4962,24 @@
         <v>45</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>45</v>
+        <v>281</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>45</v>
+        <v>284</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4862,18 +5002,20 @@
         <v>45</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>292</v>
+        <v>153</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>288</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>289</v>
+      </c>
       <c r="O29" t="s" s="2">
         <v>45</v>
       </c>
@@ -4897,13 +5039,13 @@
         <v>45</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>45</v>
+        <v>278</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>45</v>
+        <v>290</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>45</v>
+        <v>291</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>45</v>
@@ -4921,7 +5063,7 @@
         <v>45</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>43</v>
@@ -4939,24 +5081,24 @@
         <v>45</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>296</v>
+        <v>45</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>299</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4979,16 +5121,16 @@
         <v>45</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5038,7 +5180,7 @@
         <v>45</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>43</v>
@@ -5056,24 +5198,24 @@
         <v>45</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5084,7 +5226,7 @@
         <v>43</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>45</v>
@@ -5096,20 +5238,18 @@
         <v>45</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>314</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>45</v>
       </c>
@@ -5157,42 +5297,42 @@
         <v>45</v>
       </c>
       <c r="AE31" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="AF31" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>316</v>
-      </c>
       <c r="AM31" t="s" s="2">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>45</v>
+        <v>311</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5203,7 +5343,7 @@
         <v>43</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>45</v>
@@ -5215,16 +5355,20 @@
         <v>45</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>57</v>
+        <v>313</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
+        <v>315</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>317</v>
+      </c>
       <c r="O32" t="s" s="2">
         <v>45</v>
       </c>
@@ -5272,19 +5416,19 @@
         <v>45</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>45</v>
+        <v>318</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>45</v>
@@ -5293,10 +5437,10 @@
         <v>45</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>45</v>
+        <v>319</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>45</v>
@@ -5307,18 +5451,18 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>45</v>
@@ -5330,17 +5474,15 @@
         <v>45</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>102</v>
+        <v>322</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>104</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>45</v>
@@ -5389,31 +5531,31 @@
         <v>45</v>
       </c>
       <c r="AE33" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM33" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>45</v>
@@ -5428,7 +5570,7 @@
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>327</v>
+        <v>100</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5441,26 +5583,24 @@
         <v>45</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J34" t="s" s="2">
         <v>101</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>328</v>
+        <v>102</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="N34" t="s" s="2">
-        <v>110</v>
-      </c>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>45</v>
       </c>
@@ -5508,7 +5648,7 @@
         <v>45</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>43</v>
@@ -5532,7 +5672,7 @@
         <v>45</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>98</v>
+        <v>325</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>45</v>
@@ -5543,39 +5683,43 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>45</v>
+        <v>330</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="K35" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
+      <c r="M35" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>110</v>
+      </c>
       <c r="O35" t="s" s="2">
         <v>45</v>
       </c>
@@ -5623,19 +5767,19 @@
         <v>45</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>335</v>
+        <v>45</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>45</v>
@@ -5644,10 +5788,10 @@
         <v>45</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>336</v>
+        <v>45</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>337</v>
+        <v>98</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>45</v>
@@ -5658,7 +5802,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5681,13 +5825,13 @@
         <v>45</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5738,7 +5882,7 @@
         <v>45</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>43</v>
@@ -5747,7 +5891,7 @@
         <v>55</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>67</v>
@@ -5759,10 +5903,10 @@
         <v>45</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>45</v>
@@ -5773,7 +5917,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5796,20 +5940,16 @@
         <v>45</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>153</v>
+        <v>335</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="L37" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>346</v>
-      </c>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>45</v>
       </c>
@@ -5833,13 +5973,13 @@
         <v>45</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>347</v>
+        <v>45</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>348</v>
+        <v>45</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>45</v>
@@ -5857,7 +5997,7 @@
         <v>45</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>43</v>
@@ -5866,7 +6006,7 @@
         <v>55</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>45</v>
+        <v>338</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>67</v>
@@ -5875,13 +6015,13 @@
         <v>45</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>349</v>
+        <v>45</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>261</v>
+        <v>344</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>45</v>
@@ -5892,7 +6032,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5903,7 +6043,7 @@
         <v>43</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>45</v>
@@ -5918,16 +6058,16 @@
         <v>153</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>45</v>
@@ -5952,13 +6092,13 @@
         <v>45</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>275</v>
+        <v>79</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>45</v>
@@ -5976,13 +6116,13 @@
         <v>45</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>45</v>
@@ -5994,13 +6134,13 @@
         <v>45</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>45</v>
@@ -6011,7 +6151,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6022,7 +6162,7 @@
         <v>43</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>45</v>
@@ -6034,17 +6174,19 @@
         <v>45</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>359</v>
+        <v>153</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="M39" s="2"/>
+        <v>356</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>357</v>
+      </c>
       <c r="N39" t="s" s="2">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>45</v>
@@ -6069,13 +6211,13 @@
         <v>45</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>45</v>
+        <v>278</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>45</v>
+        <v>359</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>45</v>
+        <v>360</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>45</v>
@@ -6093,13 +6235,13 @@
         <v>45</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>45</v>
@@ -6111,13 +6253,13 @@
         <v>45</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>45</v>
+        <v>352</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>45</v>
+        <v>353</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>363</v>
+        <v>264</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>45</v>
@@ -6128,7 +6270,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6151,16 +6293,18 @@
         <v>45</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>57</v>
+        <v>362</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="M40" s="2"/>
+      <c r="N40" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="L40" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>45</v>
       </c>
@@ -6208,7 +6352,7 @@
         <v>45</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>43</v>
@@ -6229,10 +6373,10 @@
         <v>45</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>336</v>
+        <v>45</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>45</v>
@@ -6243,7 +6387,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6254,7 +6398,7 @@
         <v>43</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>45</v>
@@ -6263,20 +6407,18 @@
         <v>45</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="K41" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>372</v>
-      </c>
+      <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>45</v>
@@ -6325,13 +6467,13 @@
         <v>45</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>45</v>
@@ -6346,10 +6488,10 @@
         <v>45</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>373</v>
+        <v>339</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>45</v>
@@ -6360,7 +6502,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6383,16 +6525,16 @@
         <v>56</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6442,7 +6584,7 @@
         <v>45</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>43</v>
@@ -6463,10 +6605,10 @@
         <v>45</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>45</v>
@@ -6477,7 +6619,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6500,20 +6642,18 @@
         <v>56</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>310</v>
+        <v>379</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="L43" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>385</v>
-      </c>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>45</v>
       </c>
@@ -6549,19 +6689,19 @@
         <v>45</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>386</v>
+        <v>45</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>387</v>
+        <v>45</v>
       </c>
       <c r="AC43" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>388</v>
+        <v>45</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>43</v>
@@ -6582,10 +6722,10 @@
         <v>45</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>45</v>
@@ -6596,7 +6736,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6607,7 +6747,7 @@
         <v>43</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>45</v>
@@ -6616,19 +6756,23 @@
         <v>45</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>57</v>
+        <v>313</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>319</v>
+        <v>385</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
+        <v>386</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>388</v>
+      </c>
       <c r="O44" t="s" s="2">
         <v>45</v>
       </c>
@@ -6664,31 +6808,31 @@
         <v>45</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>45</v>
+        <v>389</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>45</v>
+        <v>390</v>
       </c>
       <c r="AC44" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>45</v>
+        <v>391</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>321</v>
+        <v>384</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>45</v>
@@ -6697,10 +6841,10 @@
         <v>45</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>45</v>
+        <v>392</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>322</v>
+        <v>393</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>45</v>
@@ -6711,18 +6855,18 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>45</v>
@@ -6734,17 +6878,15 @@
         <v>45</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>102</v>
+        <v>322</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>104</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>45</v>
@@ -6793,31 +6935,31 @@
         <v>45</v>
       </c>
       <c r="AE45" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM45" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="AF45" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG45" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH45" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI45" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>45</v>
@@ -6828,11 +6970,11 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>327</v>
+        <v>100</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -6845,26 +6987,24 @@
         <v>45</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J46" t="s" s="2">
         <v>101</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>328</v>
+        <v>102</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="M46" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="N46" t="s" s="2">
-        <v>110</v>
-      </c>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>45</v>
       </c>
@@ -6912,7 +7052,7 @@
         <v>45</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>43</v>
@@ -6936,7 +7076,7 @@
         <v>45</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>98</v>
+        <v>325</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>45</v>
@@ -6947,42 +7087,42 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>45</v>
+        <v>330</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>56</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>153</v>
+        <v>101</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>395</v>
+        <v>331</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>396</v>
+        <v>332</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>397</v>
+        <v>104</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>167</v>
+        <v>110</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>45</v>
@@ -7007,13 +7147,13 @@
         <v>45</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>275</v>
+        <v>45</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>398</v>
+        <v>45</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>399</v>
+        <v>45</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>45</v>
@@ -7031,34 +7171,34 @@
         <v>45</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>394</v>
+        <v>333</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>400</v>
+        <v>45</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>171</v>
+        <v>45</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>172</v>
+        <v>98</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>173</v>
+        <v>45</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>45</v>
@@ -7066,7 +7206,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7074,7 +7214,7 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F48" t="s" s="2">
         <v>55</v>
@@ -7089,19 +7229,19 @@
         <v>56</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>231</v>
+        <v>153</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>233</v>
+        <v>399</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>235</v>
+        <v>167</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>45</v>
@@ -7126,13 +7266,13 @@
         <v>45</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>45</v>
+        <v>278</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>45</v>
+        <v>401</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>45</v>
+        <v>402</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>45</v>
@@ -7150,10 +7290,10 @@
         <v>45</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>55</v>
@@ -7168,24 +7308,24 @@
         <v>45</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>238</v>
+        <v>171</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>239</v>
+        <v>172</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>45</v>
+        <v>173</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>240</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7205,22 +7345,22 @@
         <v>45</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>153</v>
+        <v>234</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="L49" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>408</v>
-      </c>
       <c r="N49" t="s" s="2">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>45</v>
@@ -7245,13 +7385,13 @@
         <v>45</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>246</v>
+        <v>45</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>247</v>
+        <v>45</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>248</v>
+        <v>45</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>45</v>
@@ -7269,7 +7409,7 @@
         <v>45</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>43</v>
@@ -7278,7 +7418,7 @@
         <v>55</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>249</v>
+        <v>45</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>67</v>
@@ -7287,35 +7427,35 @@
         <v>45</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>45</v>
+        <v>407</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>98</v>
+        <v>241</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>45</v>
+        <v>243</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>252</v>
+        <v>45</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>45</v>
@@ -7330,16 +7470,16 @@
         <v>153</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>253</v>
+        <v>409</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>254</v>
+        <v>410</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>255</v>
+        <v>411</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>45</v>
@@ -7364,13 +7504,13 @@
         <v>45</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>45</v>
@@ -7388,16 +7528,16 @@
         <v>45</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>45</v>
+        <v>252</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>67</v>
@@ -7406,28 +7546,28 @@
         <v>45</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>259</v>
+        <v>45</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>260</v>
+        <v>98</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>262</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>45</v>
+        <v>255</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7446,19 +7586,19 @@
         <v>45</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>45</v>
+        <v>153</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>411</v>
+        <v>256</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>412</v>
+        <v>257</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>313</v>
+        <v>258</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>314</v>
+        <v>259</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>45</v>
@@ -7483,13 +7623,13 @@
         <v>45</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>45</v>
+        <v>249</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>45</v>
+        <v>260</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>45</v>
+        <v>261</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>45</v>
@@ -7507,7 +7647,7 @@
         <v>45</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>43</v>
@@ -7525,28 +7665,26 @@
         <v>45</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>45</v>
+        <v>262</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>316</v>
+        <v>263</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>317</v>
+        <v>264</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>45</v>
+        <v>265</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="B52" t="s" s="2">
         <v>413</v>
       </c>
+      <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
         <v>45</v>
       </c>
@@ -7564,22 +7702,22 @@
         <v>45</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>310</v>
+        <v>45</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>382</v>
+        <v>414</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>383</v>
+        <v>415</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>384</v>
+        <v>316</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>385</v>
+        <v>317</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>45</v>
@@ -7628,7 +7766,7 @@
         <v>45</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>381</v>
+        <v>413</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>43</v>
@@ -7649,10 +7787,10 @@
         <v>45</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>389</v>
+        <v>319</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>390</v>
+        <v>320</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>45</v>
@@ -7661,11 +7799,13 @@
         <v>45</v>
       </c>
     </row>
-    <row r="53" hidden="true">
+    <row r="53">
       <c r="A53" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="B53" s="2"/>
+        <v>384</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>416</v>
+      </c>
       <c r="C53" t="s" s="2">
         <v>45</v>
       </c>
@@ -7677,25 +7817,29 @@
         <v>55</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>57</v>
+        <v>313</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>319</v>
+        <v>385</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
+        <v>386</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>388</v>
+      </c>
       <c r="O53" t="s" s="2">
         <v>45</v>
       </c>
@@ -7743,19 +7887,19 @@
         <v>45</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>321</v>
+        <v>384</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>45</v>
@@ -7764,10 +7908,10 @@
         <v>45</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>45</v>
+        <v>392</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>322</v>
+        <v>393</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>45</v>
@@ -7778,18 +7922,18 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>45</v>
@@ -7801,17 +7945,15 @@
         <v>45</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>102</v>
+        <v>322</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>104</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="M54" s="2"/>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>45</v>
@@ -7860,31 +8002,31 @@
         <v>45</v>
       </c>
       <c r="AE54" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM54" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>45</v>
@@ -7895,11 +8037,11 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>327</v>
+        <v>100</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -7912,26 +8054,24 @@
         <v>45</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J55" t="s" s="2">
         <v>101</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>328</v>
+        <v>102</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="M55" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="N55" t="s" s="2">
-        <v>110</v>
-      </c>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>45</v>
       </c>
@@ -7979,7 +8119,7 @@
         <v>45</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>43</v>
@@ -8003,7 +8143,7 @@
         <v>45</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>98</v>
+        <v>325</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>45</v>
@@ -8014,42 +8154,42 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>45</v>
+        <v>330</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>56</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>153</v>
+        <v>101</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>395</v>
+        <v>331</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>396</v>
+        <v>332</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>397</v>
+        <v>104</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>167</v>
+        <v>110</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>45</v>
@@ -8074,11 +8214,13 @@
         <v>45</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="X56" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="Y56" t="s" s="2">
-        <v>414</v>
+        <v>45</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>45</v>
@@ -8096,34 +8238,34 @@
         <v>45</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>394</v>
+        <v>333</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>400</v>
+        <v>45</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>171</v>
+        <v>45</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>172</v>
+        <v>98</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>173</v>
+        <v>45</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>45</v>
@@ -8131,7 +8273,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8139,7 +8281,7 @@
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F57" t="s" s="2">
         <v>55</v>
@@ -8154,19 +8296,19 @@
         <v>56</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>415</v>
+        <v>153</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>233</v>
+        <v>399</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>235</v>
+        <v>167</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>45</v>
@@ -8176,7 +8318,7 @@
         <v>45</v>
       </c>
       <c r="R57" t="s" s="2">
-        <v>45</v>
+        <v>417</v>
       </c>
       <c r="S57" t="s" s="2">
         <v>45</v>
@@ -8191,13 +8333,13 @@
         <v>45</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>45</v>
+        <v>278</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>45</v>
+        <v>401</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>45</v>
+        <v>402</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>45</v>
@@ -8215,10 +8357,10 @@
         <v>45</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>55</v>
@@ -8233,24 +8375,24 @@
         <v>45</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>238</v>
+        <v>171</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>239</v>
+        <v>172</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>45</v>
+        <v>173</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>240</v>
+        <v>45</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8270,22 +8412,22 @@
         <v>45</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>153</v>
+        <v>418</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="L58" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>408</v>
-      </c>
       <c r="N58" t="s" s="2">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>45</v>
@@ -8310,31 +8452,29 @@
         <v>45</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>246</v>
+        <v>45</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>247</v>
+        <v>45</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>248</v>
+        <v>45</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="AB58" s="2"/>
       <c r="AC58" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD58" t="s" s="2">
-        <v>45</v>
+        <v>210</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>43</v>
@@ -8343,7 +8483,7 @@
         <v>55</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>249</v>
+        <v>45</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>67</v>
@@ -8352,35 +8492,37 @@
         <v>45</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>45</v>
+        <v>407</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>98</v>
+        <v>241</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>45</v>
+        <v>243</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="B59" s="2"/>
+        <v>404</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>419</v>
+      </c>
       <c r="C59" t="s" s="2">
-        <v>252</v>
+        <v>45</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>45</v>
@@ -8389,22 +8531,22 @@
         <v>45</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>153</v>
+        <v>418</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>253</v>
+        <v>405</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>255</v>
+        <v>406</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>45</v>
@@ -8429,13 +8571,13 @@
         <v>45</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>246</v>
+        <v>45</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>257</v>
+        <v>45</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>258</v>
+        <v>45</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>45</v>
@@ -8453,13 +8595,13 @@
         <v>45</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>45</v>
@@ -8471,24 +8613,24 @@
         <v>45</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>259</v>
+        <v>407</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>262</v>
+        <v>243</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8499,7 +8641,7 @@
         <v>43</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>45</v>
@@ -8511,20 +8653,16 @@
         <v>45</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>411</v>
+        <v>322</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>314</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>45</v>
       </c>
@@ -8572,19 +8710,19 @@
         <v>45</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>410</v>
+        <v>324</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>45</v>
@@ -8593,10 +8731,10 @@
         <v>45</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>316</v>
+        <v>45</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>45</v>
@@ -8607,20 +8745,18 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="B61" t="s" s="2">
-        <v>416</v>
-      </c>
+        <v>421</v>
+      </c>
+      <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>45</v>
@@ -8629,23 +8765,21 @@
         <v>45</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>310</v>
+        <v>101</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>382</v>
+        <v>102</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>383</v>
+        <v>327</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>385</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>45</v>
       </c>
@@ -8681,19 +8815,19 @@
         <v>45</v>
       </c>
       <c r="AA61" t="s" s="2">
-        <v>45</v>
+        <v>422</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>45</v>
+        <v>423</v>
       </c>
       <c r="AC61" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD61" t="s" s="2">
-        <v>45</v>
+        <v>391</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>381</v>
+        <v>328</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>43</v>
@@ -8705,7 +8839,7 @@
         <v>45</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>45</v>
@@ -8714,10 +8848,10 @@
         <v>45</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>389</v>
+        <v>45</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>390</v>
+        <v>325</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>45</v>
@@ -8726,9 +8860,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="62" hidden="true">
+    <row r="62">
       <c r="A62" t="s" s="2">
-        <v>391</v>
+        <v>424</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8742,25 +8876,29 @@
         <v>55</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>57</v>
+        <v>425</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>319</v>
+        <v>426</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="M62" s="2"/>
-      <c r="N62" s="2"/>
+        <v>427</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>429</v>
+      </c>
       <c r="O62" t="s" s="2">
         <v>45</v>
       </c>
@@ -8808,7 +8946,7 @@
         <v>45</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>321</v>
+        <v>430</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>43</v>
@@ -8820,7 +8958,7 @@
         <v>45</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>45</v>
@@ -8829,10 +8967,10 @@
         <v>45</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>45</v>
+        <v>431</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>322</v>
+        <v>432</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>45</v>
@@ -8843,45 +8981,47 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>392</v>
+        <v>433</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>102</v>
+        <v>434</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>435</v>
+      </c>
+      <c r="M63" s="2"/>
+      <c r="N63" t="s" s="2">
+        <v>436</v>
+      </c>
       <c r="O63" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="P63" s="2"/>
+      <c r="P63" t="s" s="2">
+        <v>437</v>
+      </c>
       <c r="Q63" t="s" s="2">
         <v>45</v>
       </c>
@@ -8901,13 +9041,13 @@
         <v>45</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>45</v>
+        <v>144</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>45</v>
+        <v>438</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>45</v>
+        <v>439</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>45</v>
@@ -8925,19 +9065,19 @@
         <v>45</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>325</v>
+        <v>440</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>45</v>
@@ -8946,10 +9086,10 @@
         <v>45</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>45</v>
+        <v>441</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>322</v>
+        <v>442</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>45</v>
@@ -8960,42 +9100,40 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>393</v>
+        <v>443</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>327</v>
+        <v>45</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I64" t="s" s="2">
         <v>56</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>328</v>
+        <v>444</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>104</v>
-      </c>
+        <v>445</v>
+      </c>
+      <c r="M64" s="2"/>
       <c r="N64" t="s" s="2">
-        <v>110</v>
+        <v>446</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>45</v>
@@ -9044,19 +9182,19 @@
         <v>45</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>330</v>
+        <v>447</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>45</v>
@@ -9065,10 +9203,10 @@
         <v>45</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>45</v>
+        <v>448</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>98</v>
+        <v>449</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>45</v>
@@ -9079,7 +9217,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>394</v>
+        <v>450</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9087,7 +9225,7 @@
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F65" t="s" s="2">
         <v>55</v>
@@ -9102,19 +9240,17 @@
         <v>56</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>153</v>
+        <v>69</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>395</v>
+        <v>451</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>397</v>
-      </c>
+        <v>452</v>
+      </c>
+      <c r="M65" s="2"/>
       <c r="N65" t="s" s="2">
-        <v>167</v>
+        <v>453</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>45</v>
@@ -9139,11 +9275,13 @@
         <v>45</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="X65" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="Y65" t="s" s="2">
-        <v>417</v>
+        <v>45</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>45</v>
@@ -9161,16 +9299,16 @@
         <v>45</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>394</v>
+        <v>454</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>55</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>45</v>
+        <v>455</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>67</v>
@@ -9179,16 +9317,16 @@
         <v>45</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>400</v>
+        <v>45</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>171</v>
+        <v>448</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>172</v>
+        <v>456</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>173</v>
+        <v>45</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>45</v>
@@ -9196,7 +9334,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>401</v>
+        <v>457</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9219,19 +9357,19 @@
         <v>56</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>415</v>
+        <v>75</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>402</v>
+        <v>458</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>233</v>
+        <v>459</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>403</v>
+        <v>460</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>235</v>
+        <v>461</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>45</v>
@@ -9280,7 +9418,7 @@
         <v>45</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>401</v>
+        <v>462</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>43</v>
@@ -9298,24 +9436,24 @@
         <v>45</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>404</v>
+        <v>45</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>238</v>
+        <v>448</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>239</v>
+        <v>463</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>240</v>
+        <v>45</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9341,16 +9479,16 @@
         <v>153</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>45</v>
@@ -9375,13 +9513,13 @@
         <v>45</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>45</v>
@@ -9399,7 +9537,7 @@
         <v>45</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>43</v>
@@ -9408,7 +9546,7 @@
         <v>55</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>67</v>
@@ -9423,7 +9561,7 @@
         <v>98</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>45</v>
@@ -9434,11 +9572,11 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -9460,16 +9598,16 @@
         <v>153</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>45</v>
@@ -9494,13 +9632,13 @@
         <v>45</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>45</v>
@@ -9518,7 +9656,7 @@
         <v>45</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>43</v>
@@ -9536,24 +9674,24 @@
         <v>45</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO68" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9579,16 +9717,16 @@
         <v>45</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>45</v>
@@ -9637,7 +9775,7 @@
         <v>45</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>43</v>
@@ -9658,1085 +9796,20 @@
         <v>45</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO69" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="70" hidden="true">
-      <c r="A70" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="B70" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="C70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D70" s="2"/>
-      <c r="E70" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F70" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="G70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="J70" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="K70" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P70" s="2"/>
-      <c r="Q70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO70" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="71" hidden="true">
-      <c r="A71" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="B71" s="2"/>
-      <c r="C71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D71" s="2"/>
-      <c r="E71" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F71" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="G71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J71" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="K71" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="M71" s="2"/>
-      <c r="N71" s="2"/>
-      <c r="O71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P71" s="2"/>
-      <c r="Q71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO71" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="72" hidden="true">
-      <c r="A72" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="B72" s="2"/>
-      <c r="C72" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="D72" s="2"/>
-      <c r="E72" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F72" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J72" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="K72" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N72" s="2"/>
-      <c r="O72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P72" s="2"/>
-      <c r="Q72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="AN72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO72" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="73" hidden="true">
-      <c r="A73" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="B73" s="2"/>
-      <c r="C73" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="D73" s="2"/>
-      <c r="E73" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F73" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="J73" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="K73" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P73" s="2"/>
-      <c r="Q73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO73" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="74" hidden="true">
-      <c r="A74" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="B74" s="2"/>
-      <c r="C74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D74" s="2"/>
-      <c r="E74" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="F74" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="G74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="J74" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="K74" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P74" s="2"/>
-      <c r="Q74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W74" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="X74" s="2"/>
-      <c r="Y74" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="AO74" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="75" hidden="true">
-      <c r="A75" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="B75" s="2"/>
-      <c r="C75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D75" s="2"/>
-      <c r="E75" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F75" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="G75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="J75" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="K75" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P75" s="2"/>
-      <c r="Q75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE75" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="AF75" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO75" t="s" s="2">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="76" hidden="true">
-      <c r="A76" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="B76" s="2"/>
-      <c r="C76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D76" s="2"/>
-      <c r="E76" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F76" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="G76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J76" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="K76" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="O76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P76" s="2"/>
-      <c r="Q76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W76" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="X76" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="Y76" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="AN76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO76" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="77" hidden="true">
-      <c r="A77" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="B77" s="2"/>
-      <c r="C77" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="D77" s="2"/>
-      <c r="E77" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J77" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="O77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P77" s="2"/>
-      <c r="Q77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W77" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="AN77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO77" t="s" s="2">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="78" hidden="true">
-      <c r="A78" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="B78" s="2"/>
-      <c r="C78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D78" s="2"/>
-      <c r="E78" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="K78" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="O78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P78" s="2"/>
-      <c r="Q78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE78" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="AF78" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="AM78" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="AN78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO78" t="s" s="2">
         <v>45</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO78">
+  <autoFilter ref="A1:AO69">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10746,7 +9819,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI77">
+  <conditionalFormatting sqref="A2:AI68">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/branches/draft/StructureDefinition-pregnancy-status.xlsx
+++ b/branches/draft/StructureDefinition-pregnancy-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-25T20:43:03+00:00</t>
+    <t>2022-02-25T20:52:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/draft/StructureDefinition-pregnancy-status.xlsx
+++ b/branches/draft/StructureDefinition-pregnancy-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-25T20:52:14+00:00</t>
+    <t>2022-02-25T20:59:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/draft/StructureDefinition-pregnancy-status.xlsx
+++ b/branches/draft/StructureDefinition-pregnancy-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-25T20:59:17+00:00</t>
+    <t>2022-02-25T21:00:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/draft/StructureDefinition-pregnancy-status.xlsx
+++ b/branches/draft/StructureDefinition-pregnancy-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-25T21:00:17+00:00</t>
+    <t>2022-02-25T21:34:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
